--- a/Testfiles/color.xlsx
+++ b/Testfiles/color.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brushed Aluminum</t>
+          <t>Pearl White HG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -449,12 +449,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Pearl+White+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>River Rock</t>
+          <t>Winter Frost SM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -462,12 +466,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Winter+Frost+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sheer Beauty</t>
+          <t>Sun Grey HG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,12 +483,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Sun+Grey+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fashionista</t>
+          <t>Sun Grey SM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,12 +500,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Sun+Grey+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Chameleon</t>
+          <t>Stone Grey HG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,12 +517,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Stone+Grey+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Weekend Getaway</t>
+          <t>Stone Grey SM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -514,12 +534,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Stone+Grey+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Winter Fun</t>
+          <t>Eclipse HG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -527,12 +551,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Eclipse+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Casting at First Light</t>
+          <t>Eclipse SM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -540,12 +568,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Eclipse+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sugar on Ice</t>
+          <t>Royal Blue HG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -553,12 +585,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Royal+Blue+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sand Gladstone Oak</t>
+          <t>Royal Blue SM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -566,12 +602,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Royal+Blue+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Grey-Beige Gladstone Oak</t>
+          <t>Majestic HG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -579,12 +619,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Majestic+HG.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brown Tossini Elm</t>
+          <t>Majestic SM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,12 +636,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Majestic+SM.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tobacco Gladstone Oak</t>
+          <t>Brushed Aluminum</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -605,12 +653,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Brushed+Aluminum.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tobacco Halifax Oak</t>
+          <t>River Rock</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -618,12 +670,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/River+Rock.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Black Halifax Oak</t>
+          <t>Sheer Beauty</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -631,12 +687,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Sheer+Beauty.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Natural Halifax Oak</t>
+          <t>Fashionista</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -644,12 +704,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Fashionista.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>White Halifax Oak</t>
+          <t>The Chameleon</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -657,12 +721,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/The+Chameleon.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pearl White HG</t>
+          <t>Weekend Getaway</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -670,12 +738,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Weekend+Getaway.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Winter Frost SM</t>
+          <t>Winter Fun</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -683,12 +755,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Winter+Fun.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sun Grey HG</t>
+          <t>Casting at First Light</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -696,12 +772,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Casting+at+First+Light.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sun Grey SM</t>
+          <t>Sugar on Ice</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -709,12 +789,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Sugar+on+Ice.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Stone Grey HG</t>
+          <t>Gris Nube HG 1S</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -722,12 +806,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Gris+Nube+HG+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Stone Grey SM</t>
+          <t xml:space="preserve">Olmo HG 1S </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -735,12 +823,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Olmo+HG+1S+.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eclipse  HG</t>
+          <t>Como Ash 01 1S</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -748,12 +840,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Como+Ash+01+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eclipse  SM</t>
+          <t>Como Ash 03 1S</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -761,12 +857,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Como+Ash+03+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Royal Blue HG</t>
+          <t>Ida 01 2S</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -774,12 +874,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Ida+01+2S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Royal Blue SM</t>
+          <t>Ida 03 2S</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -787,12 +891,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Ida+03+2S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Majestic HG</t>
+          <t>Roble Muratti 01 2S</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -800,12 +908,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Roble+Muratti+01+2S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Majestic SM</t>
+          <t>Roble Muratti 04 2S</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -813,12 +925,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Roble+Muratti+04+2S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ida 01</t>
+          <t>Gris Nube Zenit 1S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -826,12 +942,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Gris+Nube+Zenit+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ida 03</t>
+          <t>Factory 01 1S</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -839,12 +959,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Factory+01+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Roble Muratti 01</t>
+          <t>Factory 02 1S</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -852,12 +976,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Factory+02+1S.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Roble Muratti 04</t>
+          <t>Sand Gladstone Oak</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -865,12 +993,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Sand+Gladstone+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Factory 01</t>
+          <t>Grey-Beige Gladstone Oak</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -878,12 +1010,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Grey-Beige+Gladstone+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Factory 02</t>
+          <t>Brown Tossini Elm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -891,12 +1027,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Brown+Tossini+Elm.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Como Ash 01</t>
+          <t>Tobacco Gladstone Oak</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -904,12 +1044,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Tobacco+Gladstone+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Como Ash 03</t>
+          <t>Tobacco Halifax Oak</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -917,12 +1061,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Tobacco+Halifax+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gris Nube Zenit</t>
+          <t>Black Halifax Oak</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -930,12 +1078,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Black+Halifax+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gris Nube HG</t>
+          <t>Natural Halifax Oak</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -943,12 +1095,16 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/Natural+Halifax+Oak.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Olmo HG</t>
+          <t>White Halifax Oak</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -956,7 +1112,11 @@
           <t>Image url</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://s3.us-east-2.amazonaws.com/static.spaice.ca/share/cuppowood/Colors/White+Halifax+Oak.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
